--- a/00 포트폴리오/포트폴리오기획서(양식)-정재녕(인바디).xlsx
+++ b/00 포트폴리오/포트폴리오기획서(양식)-정재녕(인바디).xlsx
@@ -1,163 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.3437"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.535"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JJN\00 포트폴리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="30468" windowHeight="12552"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="포트폴리오 기획서(양식)" sheetId="1" r:id="rId4"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <x:si>
-    <x:t>자주 묻는 질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A/S 및 센터 찾기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체성분 분석이란?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획의도(목적)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포트폴리오 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주요 제품 바로가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>측정 데이터 해석법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운동/식단과의 연결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디 철학/연혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보도자료/인증수상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1:1 문의(챗봇 포함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자후기 &amp; 리얼 스토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Before/After 사례</x:t>
-  </x:si>
-  <x:si>
-    <x:t>측정 소프트웨어 &amp; 앱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나의 변화 인증 이벤트</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <x:si>
+    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
 리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
   </x:si>
   <x:si>
+    <x:t>인바디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정재녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과정명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주제</x:t>
+  </x:si>
+  <x:si>
     <x:t>이름</x:t>
   </x:si>
   <x:si>
-    <x:t>인바디</x:t>
-  </x:si>
-  <x:si>
     <x:t>제출일</x:t>
   </x:si>
   <x:si>
-    <x:t>주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정재녕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과정명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 의견</x:t>
+    <x:t>체성분 분석이란?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획의도(목적)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>운동/식단과의 연결성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디 철학/연혁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포트폴리오 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>측정 데이터 해석법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보도자료/인증수상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자후기 &amp; 리얼 스토리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나의 변화 인증 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth2</x:t>
   </x:si>
   <x:si>
     <x:t>Depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강 솔루션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용 기기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커뮤니티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고객센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전문가 Q&amp;A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴 구성</x:t>
   </x:si>
   <x:si>
     <x:t>참고
 사이트</x:t>
   </x:si>
   <x:si>
+    <x:t>기타 의견</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커뮤니티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 소개</x:t>
+  </x:si>
+  <x:si>
     <x:t>Footer</x:t>
   </x:si>
   <x:si>
     <x:t>Section</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강 솔루션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용 기기</x:t>
   </x:si>
   <x:si>
     <x:t>메인화면
 구성</x:t>
   </x:si>
   <x:si>
-    <x:t>Depth2</x:t>
+    <x:t>전문가용 기기(병원용, 피트니스/센터용)</x:t>
   </x:si>
   <x:si>
     <x:t>메인 비주얼 배너(신제품, 프로모션)</x:t>
   </x:si>
   <x:si>
-    <x:t>전문가용 기기(병원용, 피트니스/센터용)</x:t>
+    <x:t>건강브이로그</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 현재 인바디 웹사이트는 전문가용 기기 중심의 정보와 이미지가 주를 이루고 있어, 일반 소비자가 접근하기엔 다소 전문적이고 거리감이 있어보여 이에 따른 청년층과 중장년층을 주요 타겟으로 설정하고, 개인용 인바디 기기의 인지도와 매출을 확대하는 데에 중점을 둡니다.
+ 특히, 개인용 제품이 전문가용 기기에 비해 상대적으로 매출이 낮은 원인을 고려하여, 소비자들이 가정에서도 손쉽고 편리하게 사용할 수 있는 제품이라는 점을 직관적으로 인식할 수 있도록 웹페이지의 콘텐츠 구성과 디자인을 개선할 계획입니다.
+ 청년층에겐 운동과 관련된 인플루언서와 협업하여 친숙한 인지도를 쌓을 수 있도록 구성하고  중장년층에겐 평소에 건강에 관심이 많은 사용자층에게 친숙하고 사용하기 편리한 기기로 인지될 수 있게 제작합니다. 
+ 또한, 웹사이트 전체의 레이아웃과 시각적 요소는 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인하여, 사용자가 인바디 제품에 대해 더욱 신뢰하고 구매로 이어질 수 있는 UX 환경을 제공하는 것을 목표로 합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://inbody.co.kr/press_release/contents/view/107/?qr=&amp;page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://inbody.co.kr/press_release/contents/view/105/?qr=&amp;page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인플루언서와 같이하는 건강체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전문가용 인바디(특히 헬스장, 피트니스)만 사용한 이용자를 개인 사용자로 전환할 수 있게 유도</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="9">
+  <x:fonts count="11">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -204,6 +202,37 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="9"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -219,7 +248,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="8">
+  <x:borders count="7">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -318,27 +347,13 @@
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left style="thin">
-        <x:color rgb="ffa6a6a6"/>
-      </x:left>
-      <x:right style="thin">
-        <x:color rgb="ffa6a6a6"/>
-      </x:right>
-      <x:top>
-        <x:color auto="1"/>
-      </x:top>
-      <x:bottom style="thin">
-        <x:color rgb="ffa6a6a6"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="19">
+  <x:cellXfs count="20">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -463,69 +478,62 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -536,7 +544,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -619,7 +626,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -654,7 +660,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -699,7 +704,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -743,7 +747,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -828,7 +831,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -849,7 +851,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -880,7 +881,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1226,10 +1226,10 @@
   <x:sheetPr codeName="Sheet1">
     <x:pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G31"/>
+  <x:dimension ref="A1:G30"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="B6" activeCellId="0" sqref="B6:G6"/>
+    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <x:selection activeCell="D20" activeCellId="0" sqref="D20:E20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1242,7 +1242,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
       <x:c r="A1" s="3" t="s">
-        <x:v>4</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B1" s="3"/>
       <x:c r="C1" s="3"/>
@@ -1254,10 +1254,10 @@
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="4"/>
@@ -1267,15 +1267,15 @@
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="5"/>
       <x:c r="D4" s="5"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F4" s="6">
         <x:v>45760</x:v>
@@ -1284,10 +1284,10 @@
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="4"/>
       <x:c r="D5" s="4"/>
@@ -1297,10 +1297,10 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="8"/>
@@ -1310,23 +1310,27 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B7" s="4"/>
-      <x:c r="C7" s="4"/>
-      <x:c r="D7" s="4"/>
-      <x:c r="E7" s="4"/>
-      <x:c r="F7" s="4"/>
-      <x:c r="G7" s="4"/>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B7" s="19" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C7" s="19"/>
+      <x:c r="D7" s="19"/>
+      <x:c r="E7" s="19"/>
+      <x:c r="F7" s="19"/>
+      <x:c r="G7" s="19"/>
     </x:row>
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A8" s="11"/>
-      <x:c r="B8" s="4"/>
-      <x:c r="C8" s="4"/>
-      <x:c r="D8" s="4"/>
-      <x:c r="E8" s="4"/>
-      <x:c r="F8" s="4"/>
-      <x:c r="G8" s="4"/>
+      <x:c r="B8" s="19" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C8" s="19"/>
+      <x:c r="D8" s="19"/>
+      <x:c r="E8" s="19"/>
+      <x:c r="F8" s="19"/>
+      <x:c r="G8" s="19"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="11"/>
@@ -1339,10 +1343,10 @@
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A10" s="10" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C10" s="5"/>
       <x:c r="D10" s="5"/>
@@ -1353,7 +1357,7 @@
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
       <x:c r="A11" s="11"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C11" s="5"/>
       <x:c r="D11" s="5"/>
@@ -1364,7 +1368,7 @@
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A12" s="11"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C12" s="5"/>
       <x:c r="D12" s="5"/>
@@ -1374,53 +1378,51 @@
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A13" s="12" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B13" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C13" s="11"/>
       <x:c r="D13" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E13" s="11"/>
       <x:c r="F13" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A14" s="13"/>
       <x:c r="B14" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C14" s="5"/>
       <x:c r="D14" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="5"/>
       <x:c r="F14" s="5"/>
       <x:c r="G14" s="5"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A15" s="13"/>
-      <x:c r="B15" s="5"/>
-      <x:c r="C15" s="5"/>
-      <x:c r="D15" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E15" s="5"/>
-      <x:c r="F15" s="5"/>
-      <x:c r="G15" s="5"/>
+      <x:c r="A15" s="12"/>
+      <x:c r="B15" s="16"/>
+      <x:c r="C15" s="17"/>
+      <x:c r="D15" s="16"/>
+      <x:c r="E15" s="17"/>
+      <x:c r="F15" s="16"/>
+      <x:c r="G15" s="17"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A16" s="13"/>
       <x:c r="B16" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C16" s="5"/>
       <x:c r="D16" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="5"/>
@@ -1441,9 +1443,7 @@
       <x:c r="A18" s="13"/>
       <x:c r="B18" s="5"/>
       <x:c r="C18" s="5"/>
-      <x:c r="D18" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="D18" s="5"/>
       <x:c r="E18" s="5"/>
       <x:c r="F18" s="5"/>
       <x:c r="G18" s="5"/>
@@ -1451,11 +1451,11 @@
     <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A19" s="13"/>
       <x:c r="B19" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C19" s="5"/>
       <x:c r="D19" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E19" s="5"/>
       <x:c r="F19" s="5"/>
@@ -1465,140 +1465,126 @@
       <x:c r="A20" s="13"/>
       <x:c r="B20" s="5"/>
       <x:c r="C20" s="5"/>
-      <x:c r="D20" s="15" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E20" s="16"/>
+      <x:c r="D20" s="14" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E20" s="15"/>
       <x:c r="F20" s="5"/>
       <x:c r="G20" s="5"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A21" s="13"/>
-      <x:c r="B21" s="15"/>
-      <x:c r="C21" s="16"/>
-      <x:c r="D21" s="15" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="E21" s="16"/>
-      <x:c r="F21" s="15"/>
-      <x:c r="G21" s="16"/>
+      <x:c r="B21" s="14"/>
+      <x:c r="C21" s="15"/>
+      <x:c r="D21" s="14" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E21" s="15"/>
+      <x:c r="F21" s="14"/>
+      <x:c r="G21" s="15"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A22" s="13"/>
       <x:c r="B22" s="5"/>
       <x:c r="C22" s="5"/>
-      <x:c r="D22" s="15" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E22" s="16"/>
-      <x:c r="F22" s="15"/>
-      <x:c r="G22" s="16"/>
+      <x:c r="D22" s="14" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E22" s="15"/>
+      <x:c r="F22" s="14"/>
+      <x:c r="G22" s="15"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="13"/>
-      <x:c r="B23" s="15" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C23" s="16"/>
-      <x:c r="D23" s="15" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E23" s="16"/>
-      <x:c r="F23" s="15"/>
-      <x:c r="G23" s="16"/>
+      <x:c r="A23" s="12"/>
+      <x:c r="B23" s="16"/>
+      <x:c r="C23" s="17"/>
+      <x:c r="D23" s="16"/>
+      <x:c r="E23" s="17"/>
+      <x:c r="F23" s="16"/>
+      <x:c r="G23" s="17"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A24" s="13"/>
-      <x:c r="B24" s="15"/>
-      <x:c r="C24" s="16"/>
-      <x:c r="D24" s="15" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E24" s="16"/>
-      <x:c r="F24" s="15"/>
-      <x:c r="G24" s="16"/>
+      <x:c r="B24" s="14" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C24" s="15"/>
+      <x:c r="D24" s="14" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E24" s="15"/>
+      <x:c r="F24" s="14"/>
+      <x:c r="G24" s="15"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A25" s="13"/>
-      <x:c r="B25" s="15"/>
-      <x:c r="C25" s="16"/>
-      <x:c r="D25" s="15" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E25" s="16"/>
-      <x:c r="F25" s="15"/>
-      <x:c r="G25" s="16"/>
-    </x:row>
-    <x:row r="26" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="B25" s="14"/>
+      <x:c r="C25" s="15"/>
+      <x:c r="D25" s="14" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E25" s="15"/>
+      <x:c r="F25" s="14"/>
+      <x:c r="G25" s="15"/>
+    </x:row>
+    <x:row r="26" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A26" s="13"/>
-      <x:c r="B26" s="17" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C26" s="18"/>
-      <x:c r="D26" s="17" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E26" s="18"/>
-      <x:c r="F26" s="17"/>
-      <x:c r="G26" s="18"/>
-    </x:row>
-    <x:row r="27" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="B26" s="14"/>
+      <x:c r="C26" s="15"/>
+      <x:c r="D26" s="14" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E26" s="15"/>
+      <x:c r="F26" s="14"/>
+      <x:c r="G26" s="15"/>
+    </x:row>
+    <x:row r="27" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A27" s="12"/>
-      <x:c r="B27" s="17"/>
-      <x:c r="C27" s="18"/>
-      <x:c r="D27" s="17" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E27" s="18"/>
-      <x:c r="F27" s="17"/>
-      <x:c r="G27" s="18"/>
+      <x:c r="B27" s="16"/>
+      <x:c r="C27" s="17"/>
+      <x:c r="D27" s="16"/>
+      <x:c r="E27" s="17"/>
+      <x:c r="F27" s="16"/>
+      <x:c r="G27" s="17"/>
     </x:row>
     <x:row r="28" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A28" s="13"/>
-      <x:c r="B28" s="17" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C28" s="18"/>
-      <x:c r="D28" s="17" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E28" s="18"/>
-      <x:c r="F28" s="17"/>
-      <x:c r="G28" s="18"/>
+      <x:c r="B28" s="16" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C28" s="17"/>
+      <x:c r="D28" s="16" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E28" s="17"/>
+      <x:c r="F28" s="16"/>
+      <x:c r="G28" s="17"/>
     </x:row>
     <x:row r="29" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A29" s="12"/>
-      <x:c r="B29" s="17"/>
-      <x:c r="C29" s="18"/>
-      <x:c r="D29" s="17" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E29" s="18"/>
-      <x:c r="F29" s="17"/>
-      <x:c r="G29" s="18"/>
-    </x:row>
-    <x:row r="30" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A30" s="14"/>
-      <x:c r="B30" s="15"/>
-      <x:c r="C30" s="16"/>
-      <x:c r="D30" s="15" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E30" s="16"/>
-      <x:c r="F30" s="15"/>
-      <x:c r="G30" s="16"/>
-    </x:row>
-    <x:row r="31" spans="1:7" ht="150" customHeight="1">
-      <x:c r="A31" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B31" s="4"/>
-      <x:c r="C31" s="4"/>
-      <x:c r="D31" s="4"/>
-      <x:c r="E31" s="4"/>
-      <x:c r="F31" s="4"/>
-      <x:c r="G31" s="4"/>
-    </x:row>
+      <x:c r="B29" s="16"/>
+      <x:c r="C29" s="17"/>
+      <x:c r="D29" s="16" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E29" s="17"/>
+      <x:c r="F29" s="16"/>
+      <x:c r="G29" s="17"/>
+    </x:row>
+    <x:row r="30" spans="1:7" ht="150" customHeight="1">
+      <x:c r="A30" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B30" s="18" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C30" s="18"/>
+      <x:c r="D30" s="18"/>
+      <x:c r="E30" s="18"/>
+      <x:c r="F30" s="18"/>
+      <x:c r="G30" s="18"/>
+    </x:row>
+    <x:row r="31" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="32" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="33" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="34" ht="20.10000000000000142109" customHeight="1"/>
@@ -1615,9 +1601,8 @@
     <x:row r="45" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="46" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="47" ht="20.10000000000000142109" customHeight="1"/>
-    <x:row r="48" ht="20.10000000000000142109" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="70">
+  <x:mergeCells count="67">
     <x:mergeCell ref="A1:G1"/>
     <x:mergeCell ref="B3:G3"/>
     <x:mergeCell ref="B4:D4"/>
@@ -1632,16 +1617,13 @@
     <x:mergeCell ref="C10:G10"/>
     <x:mergeCell ref="C11:G11"/>
     <x:mergeCell ref="C12:G12"/>
-    <x:mergeCell ref="A13:A30"/>
+    <x:mergeCell ref="A13:A29"/>
     <x:mergeCell ref="B13:C13"/>
     <x:mergeCell ref="D13:E13"/>
     <x:mergeCell ref="F13:G13"/>
     <x:mergeCell ref="B14:C14"/>
     <x:mergeCell ref="D14:E14"/>
     <x:mergeCell ref="F14:G14"/>
-    <x:mergeCell ref="B15:C15"/>
-    <x:mergeCell ref="D15:E15"/>
-    <x:mergeCell ref="F15:G15"/>
     <x:mergeCell ref="B16:C16"/>
     <x:mergeCell ref="D16:E16"/>
     <x:mergeCell ref="F16:G16"/>
@@ -1663,9 +1645,6 @@
     <x:mergeCell ref="B22:C22"/>
     <x:mergeCell ref="D22:E22"/>
     <x:mergeCell ref="F22:G22"/>
-    <x:mergeCell ref="B23:C23"/>
-    <x:mergeCell ref="D23:E23"/>
-    <x:mergeCell ref="F23:G23"/>
     <x:mergeCell ref="B24:C24"/>
     <x:mergeCell ref="D24:E24"/>
     <x:mergeCell ref="F24:G24"/>
@@ -1675,21 +1654,50 @@
     <x:mergeCell ref="B26:C26"/>
     <x:mergeCell ref="D26:E26"/>
     <x:mergeCell ref="F26:G26"/>
-    <x:mergeCell ref="B27:C27"/>
-    <x:mergeCell ref="D27:E27"/>
-    <x:mergeCell ref="F27:G27"/>
     <x:mergeCell ref="B28:C28"/>
     <x:mergeCell ref="D28:E28"/>
     <x:mergeCell ref="F28:G28"/>
     <x:mergeCell ref="B29:C29"/>
     <x:mergeCell ref="D29:E29"/>
     <x:mergeCell ref="F29:G29"/>
-    <x:mergeCell ref="B30:C30"/>
-    <x:mergeCell ref="D30:E30"/>
-    <x:mergeCell ref="F30:G30"/>
-    <x:mergeCell ref="B31:G31"/>
+    <x:mergeCell ref="B30:G30"/>
+    <x:mergeCell ref="F15:G15"/>
+    <x:mergeCell ref="D15:E15"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="F23:G23"/>
+    <x:mergeCell ref="D23:E23"/>
+    <x:mergeCell ref="B23:C23"/>
+    <x:mergeCell ref="F27:G27"/>
+    <x:mergeCell ref="D27:E27"/>
+    <x:mergeCell ref="B27:C27"/>
   </x:mergeCells>
+  <x:hyperlinks>
+    <x:hyperlink ref="B7:G7" r:id="rId1"/>
+    <x:hyperlink ref="B8:G8" r:id="rId2"/>
+  </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="91" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet2"/>
+  <x:dimension ref="B4:B4"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B4" activeCellId="0" sqref="B4:B4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
+  <x:sheetData>
+    <x:row r="4" spans="2:2">
+      <x:c r="B4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+</x:worksheet>
 </file>
--- a/00 포트폴리오/포트폴리오기획서(양식)-정재녕(인바디).xlsx
+++ b/00 포트폴리오/포트폴리오기획서(양식)-정재녕(인바디).xlsx
@@ -20,135 +20,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <x:si>
-    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <x:si>
+    <x:t>홈 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 분석</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
 리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전문가용 인바디(특히 헬스장, 피트니스)만 사용한 이용자를 개인 사용자로 전환할 수 있게 유도</x:t>
+  </x:si>
+  <x:si>
     <x:t>인바디</x:t>
   </x:si>
   <x:si>
     <x:t>정재녕</x:t>
   </x:si>
   <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
     <x:t>과정명</x:t>
   </x:si>
   <x:si>
-    <x:t>홈</x:t>
+    <x:t>제출일</x:t>
   </x:si>
   <x:si>
     <x:t>주제</x:t>
   </x:si>
   <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체성분 분석이란?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획의도(목적)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>운동/식단과의 연결성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디 철학/연혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포트폴리오 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>측정 데이터 해석법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보도자료/인증수상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자후기 &amp; 리얼 스토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나의 변화 인증 이벤트</x:t>
+    <x:t>인플루언서와 같이하는 건강체크</x:t>
   </x:si>
   <x:si>
     <x:t>Depth2</x:t>
   </x:si>
   <x:si>
-    <x:t>Depth3</x:t>
+    <x:t>Footer</x:t>
   </x:si>
   <x:si>
     <x:t>참고
 사이트</x:t>
   </x:si>
   <x:si>
+    <x:t>메뉴 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개</x:t>
+  </x:si>
+  <x:si>
     <x:t>기타 의견</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커뮤니티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Section</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강 솔루션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용 기기</x:t>
   </x:si>
   <x:si>
     <x:t>메인화면
 구성</x:t>
   </x:si>
   <x:si>
-    <x:t>전문가용 기기(병원용, 피트니스/센터용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 비주얼 배너(신제품, 프로모션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강브이로그</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 현재 인바디 웹사이트는 전문가용 기기 중심의 정보와 이미지가 주를 이루고 있어, 일반 소비자가 접근하기엔 다소 전문적이고 거리감이 있어보여 이에 따른 청년층과 중장년층을 주요 타겟으로 설정하고, 개인용 인바디 기기의 인지도와 매출을 확대하는 데에 중점을 둡니다.
- 특히, 개인용 제품이 전문가용 기기에 비해 상대적으로 매출이 낮은 원인을 고려하여, 소비자들이 가정에서도 손쉽고 편리하게 사용할 수 있는 제품이라는 점을 직관적으로 인식할 수 있도록 웹페이지의 콘텐츠 구성과 디자인을 개선할 계획입니다.
- 청년층에겐 운동과 관련된 인플루언서와 협업하여 친숙한 인지도를 쌓을 수 있도록 구성하고  중장년층에겐 평소에 건강에 관심이 많은 사용자층에게 친숙하고 사용하기 편리한 기기로 인지될 수 있게 제작합니다. 
- 또한, 웹사이트 전체의 레이아웃과 시각적 요소는 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인하여, 사용자가 인바디 제품에 대해 더욱 신뢰하고 구매로 이어질 수 있는 UX 환경을 제공하는 것을 목표로 합니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://inbody.co.kr/press_release/contents/view/107/?qr=&amp;page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://inbody.co.kr/press_release/contents/view/105/?qr=&amp;page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인플루언서와 같이하는 건강체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전문가용 인바디(특히 헬스장, 피트니스)만 사용한 이용자를 개인 사용자로 전환할 수 있게 유도</x:t>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Section</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획의도(목적)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디 철학/연혁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포트폴리오 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개/브랜드 파워 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디란? 인바디 용어 해설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전문가용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MY DATA GUIDE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디 이야기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의료분야가 치료 중심에서 예방‧관리 중심으로 패러다임이 변화 -&gt; 건강관리에 있어 ‘체성분 분석기기’ 의 중요성이 더 강화 전망
+디지털 헬스케어, 의료시스템, 정밀의료 기술 등의 발전 및 만성질환 관리 강화의 중요성이 대두 -&gt; 질병 치료 중심에서 사전 진단, 예방을 비롯한 맞춤형 건강관리 서비스가 주목받고 있는 추세
+현재 인바디 웹사이트는 전문가용 기기 중심의 정보와 이미지가 주 -&gt;  전문적이나 거리감, 경직된 느낌 전달 
+청년층과 중장년층을 주요 타겟으로 설정 -&gt; 건강관리 관심도 증가에 발맞춰, 연령대별 맞춤 콘텐츠 및 UX 제공, 쉽게 접근할 수 있게 구성
+개인용 제품이 전문가용 기기에 비해 상대적으로 매출이 낮은 원인을 고려 -&gt;  소비자들이 가정에서도 손쉽고 편리하게 사용할 수 있는 제품이라는 점을 직관적으로 인식할 수 있도록 웹페이지의 콘텐츠 구성과 디자인을 개선
+청년층에겐 나에게 맞는 건강 관리 같은 서비스 구성, 중장년층에겐 사전 진단, 질병 예방 -&gt; 연령별 맞춤 콘텐츠 구성
+웹사이트 전체의 레이아웃과 시각적 요소를 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인 -&gt; 사용자 진입 후 개인용 제품 탐색 비율 증가를 목표</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -353,7 +347,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="20">
+  <x:cellXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -534,6 +528,19 @@
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -544,6 +551,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -626,6 +634,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -660,6 +669,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -704,6 +714,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -747,6 +758,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -831,6 +843,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -851,6 +864,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -881,6 +895,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1226,23 +1241,24 @@
   <x:sheetPr codeName="Sheet1">
     <x:pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G30"/>
+  <x:dimension ref="A1:G26"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="D20" activeCellId="0" sqref="D20:E20"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:G1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="14.41796875" bestFit="1" customWidth="1"/>
     <x:col min="2" max="4" width="12.625" customWidth="1"/>
-    <x:col min="5" max="5" width="25.75" customWidth="1"/>
-    <x:col min="6" max="7" width="12.625" customWidth="1"/>
+    <x:col min="5" max="5" width="37" customWidth="1"/>
+    <x:col min="6" max="6" width="12.625" customWidth="1"/>
+    <x:col min="7" max="7" width="25.6015625" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
       <x:c r="A1" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B1" s="3"/>
       <x:c r="C1" s="3"/>
@@ -1254,10 +1270,10 @@
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="4"/>
@@ -1267,27 +1283,27 @@
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="5" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="5"/>
       <x:c r="D4" s="5"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F4" s="6">
-        <x:v>45760</x:v>
+        <x:v>45765</x:v>
       </x:c>
       <x:c r="G4" s="5"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
         <x:v>6</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>2</x:v>
       </x:c>
       <x:c r="C5" s="4"/>
       <x:c r="D5" s="4"/>
@@ -1297,10 +1313,10 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="8"/>
@@ -1310,10 +1326,10 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>20</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C7" s="19"/>
       <x:c r="D7" s="19"/>
@@ -1324,7 +1340,7 @@
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A8" s="11"/>
       <x:c r="B8" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C8" s="19"/>
       <x:c r="D8" s="19"/>
@@ -1334,19 +1350,21 @@
     </x:row>
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="11"/>
-      <x:c r="B9" s="4"/>
-      <x:c r="C9" s="4"/>
-      <x:c r="D9" s="4"/>
-      <x:c r="E9" s="4"/>
-      <x:c r="F9" s="4"/>
-      <x:c r="G9" s="4"/>
+      <x:c r="B9" s="19" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C9" s="19"/>
+      <x:c r="D9" s="19"/>
+      <x:c r="E9" s="19"/>
+      <x:c r="F9" s="19"/>
+      <x:c r="G9" s="19"/>
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A10" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C10" s="5"/>
       <x:c r="D10" s="5"/>
@@ -1357,7 +1375,7 @@
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
       <x:c r="A11" s="11"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C11" s="5"/>
       <x:c r="D11" s="5"/>
@@ -1368,7 +1386,7 @@
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A12" s="11"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C12" s="5"/>
       <x:c r="D12" s="5"/>
@@ -1378,29 +1396,29 @@
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A13" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B13" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C13" s="11"/>
       <x:c r="D13" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="11"/>
       <x:c r="F13" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A14" s="13"/>
       <x:c r="B14" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C14" s="5"/>
       <x:c r="D14" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E14" s="5"/>
       <x:c r="F14" s="5"/>
@@ -1418,11 +1436,11 @@
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A16" s="13"/>
       <x:c r="B16" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C16" s="5"/>
       <x:c r="D16" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="5"/>
@@ -1451,11 +1469,11 @@
     <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A19" s="13"/>
       <x:c r="B19" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C19" s="5"/>
-      <x:c r="D19" s="5" t="s">
-        <x:v>9</x:v>
+      <x:c r="D19" s="20" t="s">
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E19" s="5"/>
       <x:c r="F19" s="5"/>
@@ -1466,124 +1484,84 @@
       <x:c r="B20" s="5"/>
       <x:c r="C20" s="5"/>
       <x:c r="D20" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E20" s="15"/>
-      <x:c r="F20" s="5"/>
-      <x:c r="G20" s="5"/>
+      <x:c r="F20" s="14"/>
+      <x:c r="G20" s="15"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A21" s="13"/>
-      <x:c r="B21" s="14"/>
-      <x:c r="C21" s="15"/>
-      <x:c r="D21" s="14" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E21" s="15"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="15"/>
+      <x:c r="A21" s="12"/>
+      <x:c r="B21" s="16"/>
+      <x:c r="C21" s="17"/>
+      <x:c r="D21" s="16"/>
+      <x:c r="E21" s="17"/>
+      <x:c r="F21" s="16"/>
+      <x:c r="G21" s="17"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A22" s="13"/>
-      <x:c r="B22" s="5"/>
-      <x:c r="C22" s="5"/>
+      <x:c r="B22" s="14" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C22" s="15"/>
       <x:c r="D22" s="14" t="s">
-        <x:v>39</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E22" s="15"/>
       <x:c r="F22" s="14"/>
       <x:c r="G22" s="15"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="12"/>
-      <x:c r="B23" s="16"/>
-      <x:c r="C23" s="17"/>
-      <x:c r="D23" s="16"/>
-      <x:c r="E23" s="17"/>
-      <x:c r="F23" s="16"/>
-      <x:c r="G23" s="17"/>
+      <x:c r="A23" s="13"/>
+      <x:c r="B23" s="14"/>
+      <x:c r="C23" s="15"/>
+      <x:c r="D23" s="14" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="E23" s="15"/>
+      <x:c r="F23" s="14"/>
+      <x:c r="G23" s="15"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A24" s="13"/>
-      <x:c r="B24" s="14" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C24" s="15"/>
-      <x:c r="D24" s="14" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E24" s="15"/>
-      <x:c r="F24" s="14"/>
-      <x:c r="G24" s="15"/>
-    </x:row>
-    <x:row r="25" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A24" s="12"/>
+      <x:c r="B24" s="16"/>
+      <x:c r="C24" s="17"/>
+      <x:c r="D24" s="16"/>
+      <x:c r="E24" s="17"/>
+      <x:c r="F24" s="16"/>
+      <x:c r="G24" s="17"/>
+    </x:row>
+    <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A25" s="13"/>
-      <x:c r="B25" s="14"/>
-      <x:c r="C25" s="15"/>
-      <x:c r="D25" s="14" t="s">
+      <x:c r="B25" s="16" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="E25" s="15"/>
-      <x:c r="F25" s="14"/>
-      <x:c r="G25" s="15"/>
-    </x:row>
-    <x:row r="26" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A26" s="13"/>
-      <x:c r="B26" s="14"/>
-      <x:c r="C26" s="15"/>
-      <x:c r="D26" s="14" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E26" s="15"/>
-      <x:c r="F26" s="14"/>
-      <x:c r="G26" s="15"/>
-    </x:row>
-    <x:row r="27" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A27" s="12"/>
-      <x:c r="B27" s="16"/>
-      <x:c r="C27" s="17"/>
-      <x:c r="D27" s="16"/>
-      <x:c r="E27" s="17"/>
-      <x:c r="F27" s="16"/>
-      <x:c r="G27" s="17"/>
-    </x:row>
-    <x:row r="28" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A28" s="13"/>
-      <x:c r="B28" s="16" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C28" s="17"/>
-      <x:c r="D28" s="16" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E28" s="17"/>
-      <x:c r="F28" s="16"/>
-      <x:c r="G28" s="17"/>
-    </x:row>
-    <x:row r="29" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A29" s="12"/>
-      <x:c r="B29" s="16"/>
-      <x:c r="C29" s="17"/>
-      <x:c r="D29" s="16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E29" s="17"/>
-      <x:c r="F29" s="16"/>
-      <x:c r="G29" s="17"/>
-    </x:row>
-    <x:row r="30" spans="1:7" ht="150" customHeight="1">
-      <x:c r="A30" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B30" s="18" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C30" s="18"/>
-      <x:c r="D30" s="18"/>
-      <x:c r="E30" s="18"/>
-      <x:c r="F30" s="18"/>
-      <x:c r="G30" s="18"/>
-    </x:row>
+      <x:c r="C25" s="17"/>
+      <x:c r="D25" s="16" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E25" s="17"/>
+      <x:c r="F25" s="16"/>
+      <x:c r="G25" s="17"/>
+    </x:row>
+    <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
+      <x:c r="A26" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B26" s="18" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C26" s="18"/>
+      <x:c r="D26" s="18"/>
+      <x:c r="E26" s="18"/>
+      <x:c r="F26" s="18"/>
+      <x:c r="G26" s="18"/>
+    </x:row>
+    <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
+    <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
+    <x:row r="29" ht="20.10000000000000142109" customHeight="1"/>
+    <x:row r="30" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="31" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="32" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="33" ht="20.10000000000000142109" customHeight="1"/>
@@ -1597,12 +1575,8 @@
     <x:row r="41" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="42" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="43" ht="20.10000000000000142109" customHeight="1"/>
-    <x:row r="44" ht="20.10000000000000142109" customHeight="1"/>
-    <x:row r="45" ht="20.10000000000000142109" customHeight="1"/>
-    <x:row r="46" ht="20.10000000000000142109" customHeight="1"/>
-    <x:row r="47" ht="20.10000000000000142109" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="67">
+  <x:mergeCells count="55">
     <x:mergeCell ref="A1:G1"/>
     <x:mergeCell ref="B3:G3"/>
     <x:mergeCell ref="B4:D4"/>
@@ -1617,7 +1591,7 @@
     <x:mergeCell ref="C10:G10"/>
     <x:mergeCell ref="C11:G11"/>
     <x:mergeCell ref="C12:G12"/>
-    <x:mergeCell ref="A13:A29"/>
+    <x:mergeCell ref="A13:A25"/>
     <x:mergeCell ref="B13:C13"/>
     <x:mergeCell ref="D13:E13"/>
     <x:mergeCell ref="F13:G13"/>
@@ -1639,41 +1613,30 @@
     <x:mergeCell ref="B20:C20"/>
     <x:mergeCell ref="D20:E20"/>
     <x:mergeCell ref="F20:G20"/>
-    <x:mergeCell ref="B21:C21"/>
-    <x:mergeCell ref="D21:E21"/>
-    <x:mergeCell ref="F21:G21"/>
     <x:mergeCell ref="B22:C22"/>
     <x:mergeCell ref="D22:E22"/>
     <x:mergeCell ref="F22:G22"/>
-    <x:mergeCell ref="B24:C24"/>
-    <x:mergeCell ref="D24:E24"/>
-    <x:mergeCell ref="F24:G24"/>
+    <x:mergeCell ref="B23:C23"/>
+    <x:mergeCell ref="D23:E23"/>
+    <x:mergeCell ref="F23:G23"/>
     <x:mergeCell ref="B25:C25"/>
     <x:mergeCell ref="D25:E25"/>
     <x:mergeCell ref="F25:G25"/>
-    <x:mergeCell ref="B26:C26"/>
-    <x:mergeCell ref="D26:E26"/>
-    <x:mergeCell ref="F26:G26"/>
-    <x:mergeCell ref="B28:C28"/>
-    <x:mergeCell ref="D28:E28"/>
-    <x:mergeCell ref="F28:G28"/>
-    <x:mergeCell ref="B29:C29"/>
-    <x:mergeCell ref="D29:E29"/>
-    <x:mergeCell ref="F29:G29"/>
-    <x:mergeCell ref="B30:G30"/>
+    <x:mergeCell ref="B26:G26"/>
     <x:mergeCell ref="F15:G15"/>
     <x:mergeCell ref="D15:E15"/>
     <x:mergeCell ref="B15:C15"/>
-    <x:mergeCell ref="F23:G23"/>
-    <x:mergeCell ref="D23:E23"/>
-    <x:mergeCell ref="B23:C23"/>
-    <x:mergeCell ref="F27:G27"/>
-    <x:mergeCell ref="D27:E27"/>
-    <x:mergeCell ref="B27:C27"/>
+    <x:mergeCell ref="F21:G21"/>
+    <x:mergeCell ref="D21:E21"/>
+    <x:mergeCell ref="B21:C21"/>
+    <x:mergeCell ref="F24:G24"/>
+    <x:mergeCell ref="D24:E24"/>
+    <x:mergeCell ref="B24:C24"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="B7:G7" r:id="rId1"/>
     <x:hyperlink ref="B8:G8" r:id="rId2"/>
+    <x:hyperlink ref="B9:G9" r:id="rId3"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="91" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1693,11 +1656,11 @@
   <x:sheetData>
     <x:row r="4" spans="2:2">
       <x:c r="B4" t="s">
-        <x:v>40</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/00 포트폴리오/포트폴리오기획서(양식)-정재녕(인바디).xlsx
+++ b/00 포트폴리오/포트폴리오기획서(양식)-정재녕(인바디).xlsx
@@ -20,81 +20,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <x:si>
-    <x:t>홈 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제품 분석</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <x:si>
+    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MY DATA</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
 리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+    <x:t>https://blog.naver.com/inbody0515/220971797949</x:t>
   </x:si>
   <x:si>
     <x:t>전문가용 인바디(특히 헬스장, 피트니스)만 사용한 이용자를 개인 사용자로 전환할 수 있게 유도</x:t>
   </x:si>
   <x:si>
-    <x:t>인바디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정재녕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과정명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인플루언서와 같이하는 건강체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참고
-사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 의견</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인화면
-구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Section</x:t>
+    <x:t>포트폴리오 기획서</x:t>
   </x:si>
   <x:si>
     <x:t>기획의도(목적)</x:t>
@@ -103,37 +53,7 @@
     <x:t>인바디 철학/연혁</x:t>
   </x:si>
   <x:si>
-    <x:t>포트폴리오 기획서</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BI소개/브랜드 파워 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디란? 인바디 용어 해설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전문가용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MY DATA GUIDE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디 이야기</x:t>
   </x:si>
   <x:si>
     <x:t>의료분야가 치료 중심에서 예방‧관리 중심으로 패러다임이 변화 -&gt; 건강관리에 있어 ‘체성분 분석기기’ 의 중요성이 더 강화 전망
@@ -144,12 +64,95 @@
 청년층에겐 나에게 맞는 건강 관리 같은 서비스 구성, 중장년층에겐 사전 진단, 질병 예방 -&gt; 연령별 맞춤 콘텐츠 구성
 웹사이트 전체의 레이아웃과 시각적 요소를 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인 -&gt; 사용자 진입 후 개인용 제품 탐색 비율 증가를 목표</x:t>
   </x:si>
+  <x:si>
+    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인플루언서와 같이하는 건강체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디란? 인바디 용어 해설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개/브랜드 파워 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전문가용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인화면
+구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고
+사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디 이야기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Section</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 의견</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제품 분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정재녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과정명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
+  </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="11">
+  <x:fonts count="12">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -196,6 +199,27 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="9"/>
@@ -347,7 +371,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="24">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -444,90 +468,35 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -541,6 +510,70 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -551,7 +584,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -634,7 +666,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -669,7 +700,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -714,7 +744,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -758,7 +787,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -843,7 +871,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -864,7 +891,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -895,7 +921,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1241,10 +1266,10 @@
   <x:sheetPr codeName="Sheet1">
     <x:pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G26"/>
+  <x:dimension ref="A1:G27"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="A1" activeCellId="0" sqref="A1:G1"/>
+      <x:selection activeCell="B10" activeCellId="0" sqref="B10:G10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1258,7 +1283,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
       <x:c r="A1" s="3" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B1" s="3"/>
       <x:c r="C1" s="3"/>
@@ -1270,10 +1295,10 @@
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="4"/>
@@ -1283,15 +1308,15 @@
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C4" s="5"/>
       <x:c r="D4" s="5"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F4" s="6">
         <x:v>45765</x:v>
@@ -1300,10 +1325,10 @@
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="4"/>
       <x:c r="D5" s="4"/>
@@ -1313,10 +1338,10 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="8"/>
@@ -1326,56 +1351,56 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B7" s="19" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C7" s="19"/>
-      <x:c r="D7" s="19"/>
-      <x:c r="E7" s="19"/>
-      <x:c r="F7" s="19"/>
-      <x:c r="G7" s="19"/>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B7" s="12" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C7" s="12"/>
+      <x:c r="D7" s="12"/>
+      <x:c r="E7" s="12"/>
+      <x:c r="F7" s="12"/>
+      <x:c r="G7" s="12"/>
     </x:row>
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A8" s="11"/>
-      <x:c r="B8" s="19" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C8" s="19"/>
-      <x:c r="D8" s="19"/>
-      <x:c r="E8" s="19"/>
-      <x:c r="F8" s="19"/>
-      <x:c r="G8" s="19"/>
+      <x:c r="B8" s="12" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C8" s="12"/>
+      <x:c r="D8" s="12"/>
+      <x:c r="E8" s="12"/>
+      <x:c r="F8" s="12"/>
+      <x:c r="G8" s="12"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A9" s="11"/>
-      <x:c r="B9" s="19" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C9" s="19"/>
-      <x:c r="D9" s="19"/>
-      <x:c r="E9" s="19"/>
-      <x:c r="F9" s="19"/>
-      <x:c r="G9" s="19"/>
-    </x:row>
-    <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A10" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C10" s="5"/>
-      <x:c r="D10" s="5"/>
-      <x:c r="E10" s="5"/>
-      <x:c r="F10" s="5"/>
-      <x:c r="G10" s="5"/>
-    </x:row>
-    <x:row r="11" spans="1:7" ht="120" customHeight="1">
-      <x:c r="A11" s="11"/>
+      <x:c r="A9" s="10"/>
+      <x:c r="B9" s="21" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="22"/>
+      <x:c r="D9" s="22"/>
+      <x:c r="E9" s="22"/>
+      <x:c r="F9" s="22"/>
+      <x:c r="G9" s="23"/>
+    </x:row>
+    <x:row r="10" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A10" s="11"/>
+      <x:c r="B10" s="12" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C10" s="12"/>
+      <x:c r="D10" s="12"/>
+      <x:c r="E10" s="12"/>
+      <x:c r="F10" s="12"/>
+      <x:c r="G10" s="12"/>
+    </x:row>
+    <x:row r="11" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A11" s="10" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C11" s="5"/>
       <x:c r="D11" s="5"/>
@@ -1383,10 +1408,10 @@
       <x:c r="F11" s="5"/>
       <x:c r="G11" s="5"/>
     </x:row>
-    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+    <x:row r="12" spans="1:7" ht="120" customHeight="1">
       <x:c r="A12" s="11"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C12" s="5"/>
       <x:c r="D12" s="5"/>
@@ -1394,171 +1419,181 @@
       <x:c r="F12" s="5"/>
       <x:c r="G12" s="5"/>
     </x:row>
-    <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A13" s="12" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B13" s="11" t="s">
+    <x:row r="13" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A13" s="11"/>
+      <x:c r="B13" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C13" s="5"/>
+      <x:c r="D13" s="5"/>
+      <x:c r="E13" s="5"/>
+      <x:c r="F13" s="5"/>
+      <x:c r="G13" s="5"/>
+    </x:row>
+    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A14" s="13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B14" s="11" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C14" s="11"/>
+      <x:c r="D14" s="11" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E14" s="11"/>
+      <x:c r="F14" s="11" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C13" s="11"/>
-      <x:c r="D13" s="11" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E13" s="11"/>
-      <x:c r="F13" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G13" s="11"/>
-    </x:row>
-    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A14" s="13"/>
-      <x:c r="B14" s="5" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C14" s="5"/>
-      <x:c r="D14" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E14" s="5"/>
-      <x:c r="F14" s="5"/>
-      <x:c r="G14" s="5"/>
+      <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A15" s="12"/>
-      <x:c r="B15" s="16"/>
-      <x:c r="C15" s="17"/>
-      <x:c r="D15" s="16"/>
-      <x:c r="E15" s="17"/>
-      <x:c r="F15" s="16"/>
-      <x:c r="G15" s="17"/>
+      <x:c r="A15" s="14"/>
+      <x:c r="B15" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C15" s="5"/>
+      <x:c r="D15" s="5" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E15" s="5"/>
+      <x:c r="F15" s="5"/>
+      <x:c r="G15" s="5"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A16" s="13"/>
-      <x:c r="B16" s="5" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C16" s="5"/>
-      <x:c r="D16" s="5" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E16" s="5"/>
-      <x:c r="F16" s="5"/>
-      <x:c r="G16" s="5"/>
+      <x:c r="B16" s="18"/>
+      <x:c r="C16" s="19"/>
+      <x:c r="D16" s="18"/>
+      <x:c r="E16" s="19"/>
+      <x:c r="F16" s="18"/>
+      <x:c r="G16" s="19"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A17" s="13"/>
-      <x:c r="B17" s="5"/>
+      <x:c r="A17" s="14"/>
+      <x:c r="B17" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="C17" s="5"/>
       <x:c r="D17" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E17" s="5"/>
       <x:c r="F17" s="5"/>
       <x:c r="G17" s="5"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A18" s="13"/>
+      <x:c r="A18" s="14"/>
       <x:c r="B18" s="5"/>
       <x:c r="C18" s="5"/>
-      <x:c r="D18" s="5"/>
+      <x:c r="D18" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="E18" s="5"/>
       <x:c r="F18" s="5"/>
       <x:c r="G18" s="5"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A19" s="13"/>
-      <x:c r="B19" s="5" t="s">
-        <x:v>35</x:v>
-      </x:c>
+      <x:c r="A19" s="14"/>
+      <x:c r="B19" s="5"/>
       <x:c r="C19" s="5"/>
-      <x:c r="D19" s="20" t="s">
-        <x:v>28</x:v>
-      </x:c>
+      <x:c r="D19" s="5"/>
       <x:c r="E19" s="5"/>
       <x:c r="F19" s="5"/>
       <x:c r="G19" s="5"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A20" s="13"/>
-      <x:c r="B20" s="5"/>
+      <x:c r="A20" s="14"/>
+      <x:c r="B20" s="5" t="s">
+        <x:v>3</x:v>
+      </x:c>
       <x:c r="C20" s="5"/>
-      <x:c r="D20" s="14" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E20" s="15"/>
-      <x:c r="F20" s="14"/>
-      <x:c r="G20" s="15"/>
+      <x:c r="D20" s="15" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="E20" s="5"/>
+      <x:c r="F20" s="5"/>
+      <x:c r="G20" s="5"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A21" s="12"/>
-      <x:c r="B21" s="16"/>
-      <x:c r="C21" s="17"/>
-      <x:c r="D21" s="16"/>
+      <x:c r="A21" s="14"/>
+      <x:c r="B21" s="5"/>
+      <x:c r="C21" s="5"/>
+      <x:c r="D21" s="16" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E21" s="17"/>
       <x:c r="F21" s="16"/>
       <x:c r="G21" s="17"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A22" s="13"/>
-      <x:c r="B22" s="14" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C22" s="15"/>
-      <x:c r="D22" s="14" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E22" s="15"/>
-      <x:c r="F22" s="14"/>
-      <x:c r="G22" s="15"/>
+      <x:c r="B22" s="18"/>
+      <x:c r="C22" s="19"/>
+      <x:c r="D22" s="18"/>
+      <x:c r="E22" s="19"/>
+      <x:c r="F22" s="18"/>
+      <x:c r="G22" s="19"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="13"/>
-      <x:c r="B23" s="14"/>
-      <x:c r="C23" s="15"/>
-      <x:c r="D23" s="14" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E23" s="15"/>
-      <x:c r="F23" s="14"/>
-      <x:c r="G23" s="15"/>
+      <x:c r="A23" s="14"/>
+      <x:c r="B23" s="16" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C23" s="17"/>
+      <x:c r="D23" s="16" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E23" s="17"/>
+      <x:c r="F23" s="16"/>
+      <x:c r="G23" s="17"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A24" s="12"/>
+      <x:c r="A24" s="14"/>
       <x:c r="B24" s="16"/>
       <x:c r="C24" s="17"/>
-      <x:c r="D24" s="16"/>
+      <x:c r="D24" s="16" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="E24" s="17"/>
       <x:c r="F24" s="16"/>
       <x:c r="G24" s="17"/>
     </x:row>
-    <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
+    <x:row r="25" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A25" s="13"/>
-      <x:c r="B25" s="16" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C25" s="17"/>
-      <x:c r="D25" s="16" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E25" s="17"/>
-      <x:c r="F25" s="16"/>
-      <x:c r="G25" s="17"/>
-    </x:row>
-    <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
-      <x:c r="A26" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
+      <x:c r="B25" s="18"/>
+      <x:c r="C25" s="19"/>
+      <x:c r="D25" s="18"/>
+      <x:c r="E25" s="19"/>
+      <x:c r="F25" s="18"/>
+      <x:c r="G25" s="19"/>
+    </x:row>
+    <x:row r="26" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A26" s="14"/>
       <x:c r="B26" s="18" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C26" s="18"/>
-      <x:c r="D26" s="18"/>
-      <x:c r="E26" s="18"/>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C26" s="19"/>
+      <x:c r="D26" s="18" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E26" s="19"/>
       <x:c r="F26" s="18"/>
-      <x:c r="G26" s="18"/>
-    </x:row>
-    <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
+      <x:c r="G26" s="19"/>
+    </x:row>
+    <x:row r="27" spans="1:7" ht="239.40000000000000568434" customHeight="1">
+      <x:c r="A27" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B27" s="20" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C27" s="20"/>
+      <x:c r="D27" s="20"/>
+      <x:c r="E27" s="20"/>
+      <x:c r="F27" s="20"/>
+      <x:c r="G27" s="20"/>
+    </x:row>
     <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="29" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="30" ht="20.10000000000000142109" customHeight="1"/>
@@ -1575,32 +1610,30 @@
     <x:row r="41" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="42" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="43" ht="20.10000000000000142109" customHeight="1"/>
+    <x:row r="44" ht="20.10000000000000142109" customHeight="1"/>
   </x:sheetData>
-  <x:mergeCells count="55">
+  <x:mergeCells count="56">
     <x:mergeCell ref="A1:G1"/>
     <x:mergeCell ref="B3:G3"/>
     <x:mergeCell ref="B4:D4"/>
     <x:mergeCell ref="F4:G4"/>
     <x:mergeCell ref="B5:G5"/>
     <x:mergeCell ref="B6:G6"/>
-    <x:mergeCell ref="A7:A9"/>
+    <x:mergeCell ref="A7:A10"/>
     <x:mergeCell ref="B7:G7"/>
     <x:mergeCell ref="B8:G8"/>
-    <x:mergeCell ref="B9:G9"/>
-    <x:mergeCell ref="A10:A12"/>
-    <x:mergeCell ref="C10:G10"/>
+    <x:mergeCell ref="B10:G10"/>
+    <x:mergeCell ref="A11:A13"/>
     <x:mergeCell ref="C11:G11"/>
     <x:mergeCell ref="C12:G12"/>
-    <x:mergeCell ref="A13:A25"/>
-    <x:mergeCell ref="B13:C13"/>
-    <x:mergeCell ref="D13:E13"/>
-    <x:mergeCell ref="F13:G13"/>
+    <x:mergeCell ref="C13:G13"/>
+    <x:mergeCell ref="A14:A26"/>
     <x:mergeCell ref="B14:C14"/>
     <x:mergeCell ref="D14:E14"/>
     <x:mergeCell ref="F14:G14"/>
-    <x:mergeCell ref="B16:C16"/>
-    <x:mergeCell ref="D16:E16"/>
-    <x:mergeCell ref="F16:G16"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="D15:E15"/>
+    <x:mergeCell ref="F15:G15"/>
     <x:mergeCell ref="B17:C17"/>
     <x:mergeCell ref="D17:E17"/>
     <x:mergeCell ref="F17:G17"/>
@@ -1613,30 +1646,35 @@
     <x:mergeCell ref="B20:C20"/>
     <x:mergeCell ref="D20:E20"/>
     <x:mergeCell ref="F20:G20"/>
-    <x:mergeCell ref="B22:C22"/>
-    <x:mergeCell ref="D22:E22"/>
-    <x:mergeCell ref="F22:G22"/>
+    <x:mergeCell ref="B21:C21"/>
+    <x:mergeCell ref="D21:E21"/>
+    <x:mergeCell ref="F21:G21"/>
     <x:mergeCell ref="B23:C23"/>
     <x:mergeCell ref="D23:E23"/>
     <x:mergeCell ref="F23:G23"/>
+    <x:mergeCell ref="B24:C24"/>
+    <x:mergeCell ref="D24:E24"/>
+    <x:mergeCell ref="F24:G24"/>
+    <x:mergeCell ref="B26:C26"/>
+    <x:mergeCell ref="D26:E26"/>
+    <x:mergeCell ref="F26:G26"/>
+    <x:mergeCell ref="B27:G27"/>
+    <x:mergeCell ref="F16:G16"/>
+    <x:mergeCell ref="D16:E16"/>
+    <x:mergeCell ref="B16:C16"/>
+    <x:mergeCell ref="F22:G22"/>
+    <x:mergeCell ref="D22:E22"/>
+    <x:mergeCell ref="B22:C22"/>
+    <x:mergeCell ref="F25:G25"/>
+    <x:mergeCell ref="D25:E25"/>
     <x:mergeCell ref="B25:C25"/>
-    <x:mergeCell ref="D25:E25"/>
-    <x:mergeCell ref="F25:G25"/>
-    <x:mergeCell ref="B26:G26"/>
-    <x:mergeCell ref="F15:G15"/>
-    <x:mergeCell ref="D15:E15"/>
-    <x:mergeCell ref="B15:C15"/>
-    <x:mergeCell ref="F21:G21"/>
-    <x:mergeCell ref="D21:E21"/>
-    <x:mergeCell ref="B21:C21"/>
-    <x:mergeCell ref="F24:G24"/>
-    <x:mergeCell ref="D24:E24"/>
-    <x:mergeCell ref="B24:C24"/>
+    <x:mergeCell ref="B9:G9"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="B7:G7" r:id="rId1"/>
     <x:hyperlink ref="B8:G8" r:id="rId2"/>
-    <x:hyperlink ref="B9:G9" r:id="rId3"/>
+    <x:hyperlink ref="B10:G10" r:id="rId3"/>
+    <x:hyperlink ref="B9:G9" r:id="rId4"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="91" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1656,11 +1694,11 @@
   <x:sheetData>
     <x:row r="4" spans="2:2">
       <x:c r="B4" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/00 포트폴리오/포트폴리오기획서(양식)-정재녕(인바디).xlsx
+++ b/00 포트폴리오/포트폴리오기획서(양식)-정재녕(인바디).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.535"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.3437"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JJN\00 포트폴리오\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\웹디자인-웹퍼블리셔\JJN\00 포트폴리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="30468" windowHeight="12552"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="포트폴리오 기획서(양식)" sheetId="1" r:id="rId4"/>
@@ -20,67 +20,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <x:si>
-    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
-  </x:si>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <x:si>
     <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
 리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
   </x:si>
   <x:si>
-    <x:t>인바디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정재녕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과정명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일</x:t>
+    <x:t>https://www.medicalworldnews.co.kr/skin/news/basic/view_pop.php?v_idx=1404123017#:~:text=%EC%A7%80%EB%82%9C%202012%EB%85%84%20%ED%95%98%EB%B0%98%EA%B8%B0%EB%B6%80%ED%84%B0%20%ED%98%84%EC%9E%AC%EA%B9%8C%EC%A7%80%20%EC%95%BD%202%EB%85%84%EA%B0%84%20%EC%9D%B8%EB%B0%94%EB%94%94%EB%8B%A4%EC%9D%B4%EC%96%BC%EB%A1%9C,%EC%97%B0%EB%A0%B9%EB%8C%80%EB%B3%84%EB%A1%9C%EB%8A%94%2030%EB%8C%80(42%)%EA%B0%80%20%EA%B0%80%EC%9E%A5%20%EB%A7%8E%EA%B3%A0%2040%EB%8C%80(28%)%2C%2020%EB%8C%80(19%)%20%EC%88%9C%EC%9D%B4%EC%97%88%EB%8B%A4.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나의 변화 인증 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자후기 &amp; 리얼 스토리</x:t>
   </x:si>
   <x:si>
     <x:t>체성분 분석이란?</x:t>
   </x:si>
   <x:si>
+    <x:t>보도자료/인증수상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>측정 데이터 해석법</x:t>
+  </x:si>
+  <x:si>
     <x:t>기획의도(목적)</x:t>
   </x:si>
   <x:si>
+    <x:t>포트폴리오 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디 철학/연혁</x:t>
+  </x:si>
+  <x:si>
     <x:t>운동/식단과의 연결성</x:t>
   </x:si>
   <x:si>
-    <x:t>인바디 철학/연혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포트폴리오 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>측정 데이터 해석법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보도자료/인증수상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자후기 &amp; 리얼 스토리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나의 변화 인증 이벤트</x:t>
+    <x:t>인플루언서와 같이하는 건강체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강 솔루션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인화면
+구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth3</x:t>
   </x:si>
   <x:si>
     <x:t>Depth2</x:t>
   </x:si>
   <x:si>
-    <x:t>Depth3</x:t>
+    <x:t>커뮤니티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Section</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용 기기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>건강브이로그</x:t>
   </x:si>
   <x:si>
     <x:t>참고
@@ -90,47 +109,37 @@
     <x:t>기타 의견</x:t>
   </x:si>
   <x:si>
-    <x:t>커뮤니티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth1</x:t>
-  </x:si>
-  <x:si>
     <x:t>제품 소개</x:t>
   </x:si>
   <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Section</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강 솔루션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용 기기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인화면
-구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전문가용 기기(병원용, 피트니스/센터용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 비주얼 배너(신제품, 프로모션)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>건강브이로그</x:t>
+    <x:t>정재녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과정명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://inbody.co.kr/press_release/contents/view/105/?qr=&amp;page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://inbody.co.kr/press_release/contents/view/107/?qr=&amp;page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전문가용 인바디(특히 헬스장, 피트니스)만 사용한 이용자를 개인 사용자로 전환할 수 있게 유도</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> 현재 인바디 웹사이트는 전문가용 기기 중심의 정보와 이미지가 주를 이루고 있어, 일반 소비자가 접근하기엔 다소 전문적이고 거리감이 있어보여 이에 따른 청년층과 중장년층을 주요 타겟으로 설정하고, 개인용 인바디 기기의 인지도와 매출을 확대하는 데에 중점을 둡니다.
@@ -139,23 +148,17 @@
  또한, 웹사이트 전체의 레이아웃과 시각적 요소는 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인하여, 사용자가 인바디 제품에 대해 더욱 신뢰하고 구매로 이어질 수 있는 UX 환경을 제공하는 것을 목표로 합니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>https://inbody.co.kr/press_release/contents/view/107/?qr=&amp;page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://inbody.co.kr/press_release/contents/view/105/?qr=&amp;page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인플루언서와 같이하는 건강체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전문가용 인바디(특히 헬스장, 피트니스)만 사용한 이용자를 개인 사용자로 전환할 수 있게 유도</x:t>
+    <x:t>메인 비주얼 배너(신제품, 프로모션)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전문가용 기기(병원용, 피트니스/센터용)</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="11">
+  <x:fonts count="12">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -202,6 +205,27 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="9"/>
@@ -353,7 +377,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="20">
+  <x:cellXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -450,6 +474,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -528,10 +555,10 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -544,6 +571,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -626,6 +654,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -660,6 +689,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -704,6 +734,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -747,6 +778,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -831,6 +863,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -851,6 +884,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -881,6 +915,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1228,8 +1263,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:G30"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="D20" activeCellId="0" sqref="D20:E20"/>
+    <x:sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <x:selection activeCell="B7" activeCellId="0" sqref="B7:G7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1242,7 +1277,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
       <x:c r="A1" s="3" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B1" s="3"/>
       <x:c r="C1" s="3"/>
@@ -1254,10 +1289,10 @@
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="4"/>
@@ -1267,15 +1302,15 @@
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B4" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C4" s="5"/>
       <x:c r="D4" s="5"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="F4" s="6">
         <x:v>45760</x:v>
@@ -1284,10 +1319,10 @@
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C5" s="4"/>
       <x:c r="D5" s="4"/>
@@ -1297,10 +1332,10 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="8"/>
@@ -1310,43 +1345,45 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B7" s="19" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B7" s="12" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="C7" s="19"/>
-      <x:c r="D7" s="19"/>
-      <x:c r="E7" s="19"/>
-      <x:c r="F7" s="19"/>
-      <x:c r="G7" s="19"/>
+      <x:c r="C7" s="12"/>
+      <x:c r="D7" s="12"/>
+      <x:c r="E7" s="12"/>
+      <x:c r="F7" s="12"/>
+      <x:c r="G7" s="12"/>
     </x:row>
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A8" s="11"/>
-      <x:c r="B8" s="19" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C8" s="19"/>
-      <x:c r="D8" s="19"/>
-      <x:c r="E8" s="19"/>
-      <x:c r="F8" s="19"/>
-      <x:c r="G8" s="19"/>
+      <x:c r="B8" s="12" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C8" s="12"/>
+      <x:c r="D8" s="12"/>
+      <x:c r="E8" s="12"/>
+      <x:c r="F8" s="12"/>
+      <x:c r="G8" s="12"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="11"/>
-      <x:c r="B9" s="4"/>
-      <x:c r="C9" s="4"/>
-      <x:c r="D9" s="4"/>
-      <x:c r="E9" s="4"/>
-      <x:c r="F9" s="4"/>
-      <x:c r="G9" s="4"/>
+      <x:c r="B9" s="20" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C9" s="20"/>
+      <x:c r="D9" s="20"/>
+      <x:c r="E9" s="20"/>
+      <x:c r="F9" s="20"/>
+      <x:c r="G9" s="20"/>
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A10" s="10" t="s">
-        <x:v>32</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="5"/>
       <x:c r="D10" s="5"/>
@@ -1357,7 +1394,7 @@
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
       <x:c r="A11" s="11"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="5"/>
       <x:c r="D11" s="5"/>
@@ -1368,7 +1405,7 @@
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A12" s="11"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C12" s="5"/>
       <x:c r="D12" s="5"/>
@@ -1377,11 +1414,11 @@
       <x:c r="G12" s="5"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A13" s="12" t="s">
-        <x:v>28</x:v>
+      <x:c r="A13" s="13" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B13" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C13" s="11"/>
       <x:c r="D13" s="11" t="s">
@@ -1389,58 +1426,58 @@
       </x:c>
       <x:c r="E13" s="11"/>
       <x:c r="F13" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A14" s="13"/>
+      <x:c r="A14" s="14"/>
       <x:c r="B14" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C14" s="5"/>
       <x:c r="D14" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E14" s="5"/>
       <x:c r="F14" s="5"/>
       <x:c r="G14" s="5"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A15" s="12"/>
-      <x:c r="B15" s="16"/>
-      <x:c r="C15" s="17"/>
-      <x:c r="D15" s="16"/>
-      <x:c r="E15" s="17"/>
-      <x:c r="F15" s="16"/>
-      <x:c r="G15" s="17"/>
+      <x:c r="A15" s="13"/>
+      <x:c r="B15" s="17"/>
+      <x:c r="C15" s="18"/>
+      <x:c r="D15" s="17"/>
+      <x:c r="E15" s="18"/>
+      <x:c r="F15" s="17"/>
+      <x:c r="G15" s="18"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A16" s="13"/>
+      <x:c r="A16" s="14"/>
       <x:c r="B16" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C16" s="5"/>
       <x:c r="D16" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="5"/>
       <x:c r="G16" s="5"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A17" s="13"/>
+      <x:c r="A17" s="14"/>
       <x:c r="B17" s="5"/>
       <x:c r="C17" s="5"/>
       <x:c r="D17" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E17" s="5"/>
       <x:c r="F17" s="5"/>
       <x:c r="G17" s="5"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A18" s="13"/>
+      <x:c r="A18" s="14"/>
       <x:c r="B18" s="5"/>
       <x:c r="C18" s="5"/>
       <x:c r="D18" s="5"/>
@@ -1449,140 +1486,140 @@
       <x:c r="G18" s="5"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A19" s="13"/>
+      <x:c r="A19" s="14"/>
       <x:c r="B19" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C19" s="5"/>
       <x:c r="D19" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E19" s="5"/>
       <x:c r="F19" s="5"/>
       <x:c r="G19" s="5"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A20" s="13"/>
+      <x:c r="A20" s="14"/>
       <x:c r="B20" s="5"/>
       <x:c r="C20" s="5"/>
-      <x:c r="D20" s="14" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E20" s="15"/>
+      <x:c r="D20" s="15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E20" s="16"/>
       <x:c r="F20" s="5"/>
       <x:c r="G20" s="5"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A21" s="13"/>
-      <x:c r="B21" s="14"/>
-      <x:c r="C21" s="15"/>
-      <x:c r="D21" s="14" t="s">
+      <x:c r="A21" s="14"/>
+      <x:c r="B21" s="15"/>
+      <x:c r="C21" s="16"/>
+      <x:c r="D21" s="15" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E21" s="15"/>
-      <x:c r="F21" s="14"/>
-      <x:c r="G21" s="15"/>
+      <x:c r="E21" s="16"/>
+      <x:c r="F21" s="15"/>
+      <x:c r="G21" s="16"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A22" s="13"/>
+      <x:c r="A22" s="14"/>
       <x:c r="B22" s="5"/>
       <x:c r="C22" s="5"/>
-      <x:c r="D22" s="14" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E22" s="15"/>
-      <x:c r="F22" s="14"/>
-      <x:c r="G22" s="15"/>
+      <x:c r="D22" s="15" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E22" s="16"/>
+      <x:c r="F22" s="15"/>
+      <x:c r="G22" s="16"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="12"/>
-      <x:c r="B23" s="16"/>
-      <x:c r="C23" s="17"/>
-      <x:c r="D23" s="16"/>
-      <x:c r="E23" s="17"/>
-      <x:c r="F23" s="16"/>
-      <x:c r="G23" s="17"/>
+      <x:c r="A23" s="13"/>
+      <x:c r="B23" s="17"/>
+      <x:c r="C23" s="18"/>
+      <x:c r="D23" s="17"/>
+      <x:c r="E23" s="18"/>
+      <x:c r="F23" s="17"/>
+      <x:c r="G23" s="18"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A24" s="13"/>
-      <x:c r="B24" s="14" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C24" s="15"/>
-      <x:c r="D24" s="14" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E24" s="15"/>
-      <x:c r="F24" s="14"/>
-      <x:c r="G24" s="15"/>
+      <x:c r="A24" s="14"/>
+      <x:c r="B24" s="15" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C24" s="16"/>
+      <x:c r="D24" s="15" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E24" s="16"/>
+      <x:c r="F24" s="15"/>
+      <x:c r="G24" s="16"/>
     </x:row>
     <x:row r="25" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A25" s="13"/>
-      <x:c r="B25" s="14"/>
-      <x:c r="C25" s="15"/>
-      <x:c r="D25" s="14" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E25" s="15"/>
-      <x:c r="F25" s="14"/>
-      <x:c r="G25" s="15"/>
+      <x:c r="A25" s="14"/>
+      <x:c r="B25" s="15"/>
+      <x:c r="C25" s="16"/>
+      <x:c r="D25" s="15" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E25" s="16"/>
+      <x:c r="F25" s="15"/>
+      <x:c r="G25" s="16"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A26" s="13"/>
-      <x:c r="B26" s="14"/>
-      <x:c r="C26" s="15"/>
-      <x:c r="D26" s="14" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="E26" s="15"/>
-      <x:c r="F26" s="14"/>
-      <x:c r="G26" s="15"/>
+      <x:c r="A26" s="14"/>
+      <x:c r="B26" s="15"/>
+      <x:c r="C26" s="16"/>
+      <x:c r="D26" s="15" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E26" s="16"/>
+      <x:c r="F26" s="15"/>
+      <x:c r="G26" s="16"/>
     </x:row>
     <x:row r="27" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A27" s="12"/>
-      <x:c r="B27" s="16"/>
-      <x:c r="C27" s="17"/>
-      <x:c r="D27" s="16"/>
-      <x:c r="E27" s="17"/>
-      <x:c r="F27" s="16"/>
-      <x:c r="G27" s="17"/>
+      <x:c r="A27" s="13"/>
+      <x:c r="B27" s="17"/>
+      <x:c r="C27" s="18"/>
+      <x:c r="D27" s="17"/>
+      <x:c r="E27" s="18"/>
+      <x:c r="F27" s="17"/>
+      <x:c r="G27" s="18"/>
     </x:row>
     <x:row r="28" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A28" s="13"/>
-      <x:c r="B28" s="16" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C28" s="17"/>
-      <x:c r="D28" s="16" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E28" s="17"/>
-      <x:c r="F28" s="16"/>
-      <x:c r="G28" s="17"/>
+      <x:c r="A28" s="14"/>
+      <x:c r="B28" s="17" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C28" s="18"/>
+      <x:c r="D28" s="17" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E28" s="18"/>
+      <x:c r="F28" s="17"/>
+      <x:c r="G28" s="18"/>
     </x:row>
     <x:row r="29" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A29" s="12"/>
-      <x:c r="B29" s="16"/>
-      <x:c r="C29" s="17"/>
-      <x:c r="D29" s="16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E29" s="17"/>
-      <x:c r="F29" s="16"/>
-      <x:c r="G29" s="17"/>
+      <x:c r="A29" s="13"/>
+      <x:c r="B29" s="17"/>
+      <x:c r="C29" s="18"/>
+      <x:c r="D29" s="17" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E29" s="18"/>
+      <x:c r="F29" s="17"/>
+      <x:c r="G29" s="18"/>
     </x:row>
     <x:row r="30" spans="1:7" ht="150" customHeight="1">
       <x:c r="A30" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B30" s="18" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C30" s="18"/>
-      <x:c r="D30" s="18"/>
-      <x:c r="E30" s="18"/>
-      <x:c r="F30" s="18"/>
-      <x:c r="G30" s="18"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B30" s="19" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C30" s="19"/>
+      <x:c r="D30" s="19"/>
+      <x:c r="E30" s="19"/>
+      <x:c r="F30" s="19"/>
+      <x:c r="G30" s="19"/>
     </x:row>
     <x:row r="31" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="32" ht="20.10000000000000142109" customHeight="1"/>
@@ -1624,6 +1661,9 @@
     <x:mergeCell ref="B14:C14"/>
     <x:mergeCell ref="D14:E14"/>
     <x:mergeCell ref="F14:G14"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="D15:E15"/>
+    <x:mergeCell ref="F15:G15"/>
     <x:mergeCell ref="B16:C16"/>
     <x:mergeCell ref="D16:E16"/>
     <x:mergeCell ref="F16:G16"/>
@@ -1645,6 +1685,9 @@
     <x:mergeCell ref="B22:C22"/>
     <x:mergeCell ref="D22:E22"/>
     <x:mergeCell ref="F22:G22"/>
+    <x:mergeCell ref="B23:C23"/>
+    <x:mergeCell ref="D23:E23"/>
+    <x:mergeCell ref="F23:G23"/>
     <x:mergeCell ref="B24:C24"/>
     <x:mergeCell ref="D24:E24"/>
     <x:mergeCell ref="F24:G24"/>
@@ -1654,6 +1697,9 @@
     <x:mergeCell ref="B26:C26"/>
     <x:mergeCell ref="D26:E26"/>
     <x:mergeCell ref="F26:G26"/>
+    <x:mergeCell ref="B27:C27"/>
+    <x:mergeCell ref="D27:E27"/>
+    <x:mergeCell ref="F27:G27"/>
     <x:mergeCell ref="B28:C28"/>
     <x:mergeCell ref="D28:E28"/>
     <x:mergeCell ref="F28:G28"/>
@@ -1661,19 +1707,11 @@
     <x:mergeCell ref="D29:E29"/>
     <x:mergeCell ref="F29:G29"/>
     <x:mergeCell ref="B30:G30"/>
-    <x:mergeCell ref="F15:G15"/>
-    <x:mergeCell ref="D15:E15"/>
-    <x:mergeCell ref="B15:C15"/>
-    <x:mergeCell ref="F23:G23"/>
-    <x:mergeCell ref="D23:E23"/>
-    <x:mergeCell ref="B23:C23"/>
-    <x:mergeCell ref="F27:G27"/>
-    <x:mergeCell ref="D27:E27"/>
-    <x:mergeCell ref="B27:C27"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="B7:G7" r:id="rId1"/>
     <x:hyperlink ref="B8:G8" r:id="rId2"/>
+    <x:hyperlink ref="B9:G9" r:id="rId3"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="91" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -1685,7 +1723,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="B4:B4"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="B4" activeCellId="0" sqref="B4:B4"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1693,11 +1731,11 @@
   <x:sheetData>
     <x:row r="4" spans="2:2">
       <x:c r="B4" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51180553436279296875" footer="0.51180553436279296875"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51166665554046630859" footer="0.51166665554046630859"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>